--- a/Proyecto1.xlsx
+++ b/Proyecto1.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1598914356" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1598914356" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1598914356" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1598914356"/>
+      <pm:revision xmlns:pm="smNativeData" day="1599186997" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1599186997" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1599186997" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1599186997"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>Tabla de Follows</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Tabla de Transiciones Javascript</t>
   </si>
   <si>
+    <t>Tabla de Follows Html</t>
+  </si>
+  <si>
+    <t>Tabla de Transiciones Html</t>
+  </si>
+  <si>
     <t>no.</t>
   </si>
   <si>
@@ -61,6 +67,9 @@
     <t>Fin de Cadena</t>
   </si>
   <si>
+    <t>Fin</t>
+  </si>
+  <si>
     <t>1,20</t>
   </si>
   <si>
@@ -91,6 +100,12 @@
     <t>D={12,21}</t>
   </si>
   <si>
+    <t>2,3,10</t>
+  </si>
+  <si>
+    <t>A={1,4,9}</t>
+  </si>
+  <si>
     <t>2,3,20</t>
   </si>
   <si>
@@ -109,6 +124,9 @@
     <t>Si</t>
   </si>
   <si>
+    <t>B={2,3,10}</t>
+  </si>
+  <si>
     <t>C={2,3,20}</t>
   </si>
   <si>
@@ -124,6 +142,9 @@
     <t>F={3,4,5,18}</t>
   </si>
   <si>
+    <t>C={5,6,7,10}</t>
+  </si>
+  <si>
     <t>4,20</t>
   </si>
   <si>
@@ -139,12 +160,21 @@
     <t>G={13}</t>
   </si>
   <si>
+    <t>5,6,7</t>
+  </si>
+  <si>
+    <t>D={8}</t>
+  </si>
+  <si>
     <t>E={7,8,20}</t>
   </si>
   <si>
     <t>H={21}</t>
   </si>
   <si>
+    <t>E={10}</t>
+  </si>
+  <si>
     <t>7,8</t>
   </si>
   <si>
@@ -187,6 +217,12 @@
     <t>J={16,17,18,19,20}</t>
   </si>
   <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>11,12,13,20</t>
   </si>
   <si>
@@ -206,12 +242,6 @@
   </si>
   <si>
     <t>16,17,18,19</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -236,7 +266,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598914356" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599186997" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Basic Roman" sz="220" lang="default"/>
             <pm:ea face="Basic Roman" sz="220" lang="default"/>
@@ -251,7 +281,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598914356" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599186997" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -266,7 +296,7 @@
       <sz val="14"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1598914356" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1599186997" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="280" lang="default"/>
             <pm:cs face="Basic Roman" sz="280" lang="default"/>
             <pm:ea face="Basic Roman" sz="280" lang="default"/>
@@ -275,7 +305,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,13 +327,22 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1598914356" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1599186997" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -319,7 +358,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598914356"/>
+          <pm:border xmlns:pm="smNativeData" id="1599186997"/>
         </ext>
       </extLst>
     </border>
@@ -338,7 +377,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598914356">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -362,7 +401,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598914356">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -385,7 +424,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598914356">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -408,7 +447,75 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1598914356"/>
+          <pm:border xmlns:pm="smNativeData" id="1599186997"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1599186997">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
         </ext>
       </extLst>
     </border>
@@ -445,7 +552,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1598914356" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1599186997" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -709,10 +816,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:T24"/>
+  <dimension ref="B2:AN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.669643" defaultRowHeight="15.40"/>
@@ -725,9 +832,14 @@
     <col min="10" max="10" width="14.000000" customWidth="1"/>
     <col min="16" max="16" width="23.473214" customWidth="1"/>
     <col min="17" max="20" width="15.178571" customWidth="1"/>
+    <col min="26" max="26" width="15.026786" customWidth="1"/>
+    <col min="27" max="27" width="10.071429" customWidth="1"/>
+    <col min="28" max="28" width="15.026786" customWidth="1"/>
+    <col min="29" max="29" width="10.053571" customWidth="1"/>
+    <col min="30" max="30" width="12.053571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:35">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -752,633 +864,834 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-    </row>
-    <row r="3" spans="2:20">
+      <c r="V2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Z2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
+      <c r="AD2" s="7"/>
+    </row>
+    <row r="3" spans="2:35">
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="N3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="W3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="X3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="Z3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
+      <c r="AA3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35">
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>2</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
+      <c r="AD4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:35">
       <c r="B5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="R5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="T5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
+        <v>32</v>
+      </c>
+      <c r="V5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:35">
       <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="n">
         <v>3</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20">
+      <c r="V6" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:35">
       <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20">
+        <v>32</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35">
       <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
+        <v>20</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35">
       <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20">
+        <v>20</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:35">
       <c r="B10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>21</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20">
+        <v>20</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" s="2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:35">
       <c r="B11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V11" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
+      <c r="W11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
       <c r="B12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" s="2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:35">
+      <c r="B13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20">
-      <c r="B13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="S13" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
+        <v>20</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:35">
       <c r="B14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="2:35">
       <c r="B15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:14">
+    <row r="16" spans="2:35">
       <c r="B16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>14</v>
@@ -1392,18 +1705,18 @@
         <v>13</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:24">
       <c r="B17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>20</v>
@@ -1417,67 +1730,67 @@
         <v>14</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="L18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:24">
       <c r="B19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L19" s="1" t="n">
         <v>16</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N19" s="2" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:24">
       <c r="B20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L20" s="1" t="n">
         <v>17</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>18</v>
@@ -1488,16 +1801,16 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="L21" s="1" t="n">
         <v>18</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>21</v>
@@ -1508,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>20</v>
@@ -1517,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>21</v>
@@ -1528,7 +1841,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2">
         <f>---------F19</f>
@@ -1538,7 +1851,7 @@
         <v>20</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>21</v>
@@ -1549,23 +1862,25 @@
         <v>21</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:J2"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="P2:T2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Z2:AD2"/>
   </mergeCells>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1598914356" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1599186997" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -1574,14 +1889,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1598914356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1598914356" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1599186997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1599186997" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1598914356" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1599186997" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
